--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1215005.668084641</v>
+        <v>1211531.698056341</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564206</v>
+        <v>189902.9539564208</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>9102620.618728817</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8396442.772422429</v>
+        <v>8396442.772422431</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>63.37099713517588</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>120.4202303616998</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>156.0582739785057</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>21.06378739765024</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>135.1787052649172</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.3768222575565</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1312,7 +1312,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>24.25641376481833</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>41.75100837039722</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1667,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>241.4923106593519</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>41.75100837039689</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1844,22 +1844,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,22 +1889,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>174.6749352476531</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>17.49690079789916</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>69.0708624534348</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>269.513456948084</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>368.0745826192873</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>169.0167291702117</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>94.63926978364051</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>36.31606325004143</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>43.99240337009288</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>115.4685441446654</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,19 +2792,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>158.0257857281138</v>
+        <v>301.0683539834538</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -3007,13 +3007,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>129.024624796403</v>
       </c>
       <c r="X31" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>408.874264998772</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,25 +3074,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>36.31606325004098</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017903</v>
+        <v>216.6993815150878</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>334.58170967322</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>129.024624796403</v>
       </c>
       <c r="X37" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>269.513456948084</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>56.07426992839206</v>
       </c>
     </row>
     <row r="39">
@@ -3661,19 +3661,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>84.16790000022195</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>99.44420492154111</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,22 +3740,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>28.59178129926918</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>43.31785343913925</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>162.5776147681367</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3977,19 +3977,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>30.95117253761814</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>78.43452536694512</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>129.0246247964035</v>
+        <v>129.024624796403</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.875667274027</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F2" t="n">
         <v>799.1015098861748</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2633.137982800873</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2302.075095457302</v>
       </c>
       <c r="W2" t="n">
-        <v>1595.875667274027</v>
+        <v>1949.306440187188</v>
       </c>
       <c r="X2" t="n">
-        <v>1595.875667274027</v>
+        <v>1575.840681926108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1595.875667274027</v>
+        <v>1185.701349950297</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,16 +4434,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2307.009759042411</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="C5" t="n">
-        <v>1938.047242101999</v>
+        <v>1975.417918807696</v>
       </c>
       <c r="D5" t="n">
-        <v>1579.781543495249</v>
+        <v>1617.152220200946</v>
       </c>
       <c r="E5" t="n">
-        <v>1193.993290897004</v>
+        <v>1231.363967602702</v>
       </c>
       <c r="F5" t="n">
-        <v>783.0073861073968</v>
+        <v>820.3780628130942</v>
       </c>
       <c r="G5" t="n">
-        <v>365.0435780055836</v>
+        <v>402.414254711281</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>75.21953474728389</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4604,13 +4604,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042411</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="6">
@@ -4635,40 +4635,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.4871285526041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.4871285526041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4844,10 +4844,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018222</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
         <v>709.5665374816297</v>
@@ -4954,10 +4954,10 @@
         <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1491.915471247702</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C11" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D11" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E11" t="n">
-        <v>737.1647017090463</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>326.1787969194388</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
         <v>53.94298182036445</v>
@@ -5039,19 +5039,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2672.647662972951</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2672.647662972951</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2672.647662972951</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W11" t="n">
-        <v>2642.120401548716</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.654643287636</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y11" t="n">
-        <v>1878.515311311824</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5230,19 +5230,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5276,19 +5276,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5464,22 +5464,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1491.915471247702</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="C17" t="n">
-        <v>1122.952954307291</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D17" t="n">
-        <v>1122.952954307291</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E17" t="n">
-        <v>737.1647017090463</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F17" t="n">
-        <v>326.1787969194388</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5513,19 +5513,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.075095457302</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.075095457302</v>
       </c>
       <c r="W17" t="n">
-        <v>2642.120401548716</v>
+        <v>1949.306440187188</v>
       </c>
       <c r="X17" t="n">
-        <v>2268.654643287636</v>
+        <v>1575.840681926108</v>
       </c>
       <c r="Y17" t="n">
-        <v>1878.515311311824</v>
+        <v>1185.701349950297</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5677,46 +5677,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>365.6939024587812</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>365.6939024587812</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.915471247703</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C20" t="n">
-        <v>1122.952954307291</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D20" t="n">
-        <v>1122.952954307291</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E20" t="n">
-        <v>737.1647017090468</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F20" t="n">
-        <v>326.1787969194392</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
         <v>2642.120401548716</v>
@@ -5914,43 +5914,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610024</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V22" t="n">
-        <v>184.2708856551155</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y22" t="n">
         <v>53.94298182036445</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1577.945354755379</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C23" t="n">
-        <v>1208.982837814967</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082163</v>
+        <v>1222.509646904466</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>836.7213943062218</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036446</v>
+        <v>425.7354895166142</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X23" t="n">
-        <v>2354.684526795312</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y23" t="n">
-        <v>1964.5451948195</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537797</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>2312.136698977585</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610024</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V25" t="n">
-        <v>343.3601518573251</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>882.8926947117852</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8926947117852</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D26" t="n">
-        <v>882.8926947117852</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6242,34 +6242,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>1273.032026687597</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y26" t="n">
-        <v>882.8926947117852</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.37975290126636</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>170.577874895784</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>170.577874895784</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>500.8207968750362</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y28" t="n">
-        <v>280.0282177315061</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>982.816591002696</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C29" t="n">
-        <v>982.816591002696</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D29" t="n">
-        <v>624.5508923959455</v>
+        <v>1154.826587676351</v>
       </c>
       <c r="E29" t="n">
-        <v>624.5508923959455</v>
+        <v>769.0383350781071</v>
       </c>
       <c r="F29" t="n">
-        <v>213.564987606338</v>
+        <v>358.0524302884996</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U29" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V29" t="n">
-        <v>2112.324418312744</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W29" t="n">
-        <v>1759.555763042629</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X29" t="n">
-        <v>1759.555763042629</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y29" t="n">
-        <v>1369.416431066818</v>
+        <v>2268.654643287635</v>
       </c>
     </row>
     <row r="30">
@@ -6516,73 +6516,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036376</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204936</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615921</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>789.063382757264</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610024</v>
+        <v>2407.97548067279</v>
       </c>
       <c r="V31" t="n">
-        <v>438.9553738610024</v>
+        <v>2153.290992466903</v>
       </c>
       <c r="W31" t="n">
-        <v>149.5382038240418</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>882.8926947117852</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8926947117852</v>
+        <v>825.2129885066827</v>
       </c>
       <c r="D32" t="n">
-        <v>882.8926947117852</v>
+        <v>466.9472898999322</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>466.9472898999322</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>466.9472898999322</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
+        <v>2697.149091018223</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2697.149091018223</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2697.149091018223</v>
+      </c>
+      <c r="T32" t="n">
         <v>2697.149091018222</v>
       </c>
-      <c r="R32" t="n">
-        <v>2642.120401548716</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2465.942913862886</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2247.308246834948</v>
-      </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859356</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X32" t="n">
-        <v>1273.032026687597</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y32" t="n">
-        <v>882.8926947117852</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641992</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
         <v>2646.935720430048</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U34" t="n">
-        <v>598.0446400632119</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.944160717209</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C35" t="n">
-        <v>1546.944160717209</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D35" t="n">
-        <v>1188.678462110459</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E35" t="n">
-        <v>802.8902095122144</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F35" t="n">
-        <v>391.9043047226068</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6935,46 +6935,46 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X35" t="n">
         <v>2323.683332757143</v>
@@ -6990,67 +6990,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610024</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V37" t="n">
-        <v>438.9553738610024</v>
+        <v>2153.290992466904</v>
       </c>
       <c r="W37" t="n">
-        <v>149.5382038240418</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247703</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.952954307291</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D38" t="n">
-        <v>1122.952954307291</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E38" t="n">
-        <v>737.1647017090468</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F38" t="n">
-        <v>326.1787969194392</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>991.2778500677825</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311824</v>
+        <v>934.637173372437</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7260,7 +7260,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>285.8510101265798</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C40" t="n">
-        <v>285.8510101265798</v>
+        <v>304.5083130726407</v>
       </c>
       <c r="D40" t="n">
-        <v>285.8510101265798</v>
+        <v>154.391673660305</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>154.391673660305</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>154.391673660305</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7357,25 +7357,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V40" t="n">
-        <v>513.8405610245972</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W40" t="n">
-        <v>513.8405610245972</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X40" t="n">
-        <v>285.8510101265798</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y40" t="n">
-        <v>285.8510101265798</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247702</v>
+        <v>768.2839875620912</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.952954307291</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D41" t="n">
-        <v>1122.952954307291</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E41" t="n">
-        <v>737.1647017090463</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1787969194388</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
         <v>881.2824271224076</v>
@@ -7427,34 +7427,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>1154.883827626213</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614632</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7533,7 +7533,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2066.718496146435</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>563.9091713093267</v>
       </c>
       <c r="U43" t="n">
-        <v>2697.149091018222</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V43" t="n">
-        <v>2697.149091018222</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W43" t="n">
-        <v>2697.149091018222</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X43" t="n">
-        <v>2469.159540120205</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y43" t="n">
-        <v>2248.366960976675</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>882.8926947117852</v>
+        <v>1198.22326060983</v>
       </c>
       <c r="C44" t="n">
-        <v>882.8926947117852</v>
+        <v>829.2607436694179</v>
       </c>
       <c r="D44" t="n">
-        <v>882.8926947117852</v>
+        <v>470.9950450626674</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>85.20679246442319</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>85.20679246442319</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
@@ -7667,31 +7667,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2112.324418312743</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W44" t="n">
-        <v>2033.097625012799</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X44" t="n">
-        <v>1659.631866751719</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y44" t="n">
-        <v>1269.492534775907</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="45">
@@ -7722,10 +7722,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
         <v>266.2060027641992</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610024</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V46" t="n">
-        <v>184.2708856551155</v>
+        <v>2153.290992466904</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9729,7 +9729,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119835</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10428,7 +10428,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951772</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N39" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627449</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,10 +22553,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.8531703731134</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>228.8207383557132</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,22 +22711,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22762,13 +22762,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22799,10 +22799,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>167.8644987858514</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>130.867528847211</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22942,19 +22942,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>32.13109699413369</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -22987,16 +22987,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23008,7 +23008,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23018,13 +23018,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,13 +23033,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23185,7 +23185,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890127</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>30.22198880999337</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23312,7 +23312,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>103.670039652534</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>45.19995918853699</v>
@@ -23470,13 +23470,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23555,10 +23555,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>128.2387900191172</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>106.8644646478155</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23704,13 +23704,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23732,22 +23732,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23777,22 +23777,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>76.54923226063622</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23902,16 +23902,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>149.8129014611517</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,25 +23932,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>296.2020293175727</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>144.270713072711</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24145,10 +24145,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>1.885271837007195</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>157.4983735401875</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>45.70958740150769</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24266,10 +24266,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24382,10 +24382,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,25 +24406,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787257</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>157.4983735401875</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,25 +24488,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>333.4150374284276</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24601,28 +24601,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>123.2544177285349</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>51.84125811438552</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,16 +24643,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,19 +24680,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>255.7583842926812</v>
+        <v>112.7158160373412</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24734,19 +24734,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24856,10 +24856,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,10 +24880,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>157.498373540188</v>
       </c>
       <c r="X31" t="n">
-        <v>131.0703856053966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,22 +24914,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4.90990502202294</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,25 +24962,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576569</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>333.415037428428</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25126,19 +25126,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401874</v>
+        <v>69.58249272688997</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>79.20246034757503</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25369,13 +25369,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>157.498373540188</v>
       </c>
       <c r="X37" t="n">
-        <v>131.0703856053966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>144.270713072711</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>330.1636687276615</v>
       </c>
     </row>
     <row r="39">
@@ -25549,19 +25549,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>62.26606264634722</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>67.8655973375098</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25597,7 +25597,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25606,13 +25606,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,22 +25628,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>336.6811104717384</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25676,25 +25676,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>123.9289676594886</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25837,10 +25837,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>62.45749068994758</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,19 +25865,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>382.8329974831768</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25919,19 +25919,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8064433504679</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>157.4983735401875</v>
+        <v>157.498373540188</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>726139.7136092099</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>726139.7136092099</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>726139.7136092099</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092099</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092099</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>726139.7136092101</v>
+        <v>726139.71360921</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>726139.7136092101</v>
+        <v>726139.71360921</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>726139.7136092101</v>
+        <v>726139.71360921</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>726139.7136092099</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>726139.7136092099</v>
+        <v>726139.71360921</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="C2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="E2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="F2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="G2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="H2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="I2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="J2" t="n">
-        <v>303610.2405165457</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="K2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="L2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="M2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="N2" t="n">
+        <v>303610.2405165455</v>
+      </c>
+      <c r="O2" t="n">
+        <v>303610.2405165455</v>
+      </c>
+      <c r="P2" t="n">
         <v>303610.2405165454</v>
-      </c>
-      <c r="O2" t="n">
-        <v>303610.2405165454</v>
-      </c>
-      <c r="P2" t="n">
-        <v>303610.2405165455</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26488,28 +26488,28 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387030.4298216043</v>
+        <v>-387445.6443310719</v>
       </c>
       <c r="C6" t="n">
-        <v>202937.4493929399</v>
+        <v>202522.2348834726</v>
       </c>
       <c r="D6" t="n">
-        <v>202937.4493929401</v>
+        <v>202522.2348834727</v>
       </c>
       <c r="E6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834725</v>
       </c>
       <c r="F6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="G6" t="n">
-        <v>236565.0493929399</v>
+        <v>236149.8348834727</v>
       </c>
       <c r="H6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="I6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834728</v>
       </c>
       <c r="J6" t="n">
-        <v>60141.8302003473</v>
+        <v>59726.61569087967</v>
       </c>
       <c r="K6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834727</v>
       </c>
       <c r="L6" t="n">
-        <v>236565.0493929401</v>
+        <v>236149.8348834727</v>
       </c>
       <c r="M6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="N6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834728</v>
       </c>
       <c r="O6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834728</v>
       </c>
       <c r="P6" t="n">
-        <v>236565.0493929401</v>
+        <v>236149.8348834727</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
@@ -26750,19 +26750,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
         <v>377.7436642170867</v>
@@ -26808,28 +26808,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="K4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="L4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="L4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="O4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32011,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32099,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32169,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32184,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32330,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,22 +32406,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32567,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,22 +32643,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,22 +32880,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33041,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,22 +33117,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,22 +33354,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K11" t="n">
         <v>297.223041434342</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35507,7 +35507,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,10 +35659,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35738,13 +35738,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,16 +35972,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36209,16 +36209,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36446,13 +36446,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.895655249223</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36680,16 +36680,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36920,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
         <v>297.223041434342</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730622</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
         <v>297.223041434342</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37397,13 +37397,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37792,7 +37792,7 @@
         <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530448</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
